--- a/data/trans_dic/P79$recibos_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P79$recibos_2023-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01738685282241532</v>
+        <v>0.0173971348834533</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02490040815265173</v>
+        <v>0.02517226762966921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02355488006256876</v>
+        <v>0.02467892019852337</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04428002420205888</v>
+        <v>0.04639235766737689</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05591374861441406</v>
+        <v>0.05595363753432103</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04574786112677029</v>
+        <v>0.04617363264633505</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.05897214498385215</v>
+        <v>0.05897214498385214</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06809762295390125</v>
+        <v>0.06809762295390126</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.06323883521962713</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03949928987634894</v>
+        <v>0.04094958612885279</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04801896568243973</v>
+        <v>0.04856604417515575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04998171472185989</v>
+        <v>0.04835412948786547</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08339826775359389</v>
+        <v>0.0864389471585018</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09321279524394882</v>
+        <v>0.09309010888235719</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08057545040338612</v>
+        <v>0.07960756841190809</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.09912018606313729</v>
+        <v>0.0991201860631373</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.07777934701886122</v>
+        <v>0.07777934701886123</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.09299358722503638</v>
+        <v>0.09299358722503639</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07234834447726393</v>
+        <v>0.07498713654345814</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04975051507249856</v>
+        <v>0.04864395491728694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07233949841846964</v>
+        <v>0.07345255205727302</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1283151752114585</v>
+        <v>0.1303912609782576</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1156969419610508</v>
+        <v>0.1224198726733089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1144046958239878</v>
+        <v>0.1162477519892949</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.07263125983383363</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.08851926535757186</v>
+        <v>0.08851926535757185</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08169765508001033</v>
+        <v>0.08294581430571211</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05682341695524457</v>
+        <v>0.05647684962472572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07484503473883972</v>
+        <v>0.07509876687600543</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1213748083211818</v>
+        <v>0.125550943119915</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08936335255045454</v>
+        <v>0.08997570593290764</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1020664576217556</v>
+        <v>0.1029083825894787</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1354234386831584</v>
+        <v>0.1354234386831583</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.148207143170227</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1076597661967075</v>
+        <v>0.104419063888292</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1270437726964821</v>
+        <v>0.127483980454611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1253077918180251</v>
+        <v>0.1262262344064545</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1693681360831278</v>
+        <v>0.1687452411003641</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1723475061582833</v>
+        <v>0.1742147550837616</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1625936850273554</v>
+        <v>0.1644114183544955</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02973207132451913</v>
+        <v>0.02717846927388151</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1104714273266569</v>
+        <v>0.1080931039733588</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09825486168531296</v>
+        <v>0.09808604899920824</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1341890660460716</v>
+        <v>0.1324119927892328</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1572625920853679</v>
+        <v>0.1566732826783222</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1399215522603646</v>
+        <v>0.1423295371609799</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.09817391143377222</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.09238393669834974</v>
+        <v>0.09238393669834977</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07631340974301816</v>
+        <v>0.07655414118120643</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0895941133330289</v>
+        <v>0.08951528520355596</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08563496330355305</v>
+        <v>0.08615617913871633</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09738356551610992</v>
+        <v>0.0959275058720538</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1086741817883849</v>
+        <v>0.1080444559927581</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09982895447785643</v>
+        <v>0.09977899220716557</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9475</v>
+        <v>9480</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11950</v>
+        <v>12081</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24140</v>
+        <v>25292</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24129</v>
+        <v>25280</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26835</v>
+        <v>26854</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46885</v>
+        <v>47321</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18823</v>
+        <v>19514</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20095</v>
+        <v>20324</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>44735</v>
+        <v>43278</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39743</v>
+        <v>41192</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>39007</v>
+        <v>38956</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>72117</v>
+        <v>71251</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>33305</v>
+        <v>34519</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9222</v>
+        <v>9017</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>46710</v>
+        <v>47429</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>59068</v>
+        <v>60024</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21447</v>
+        <v>22693</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>73872</v>
+        <v>75062</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>90649</v>
+        <v>92034</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>47018</v>
+        <v>46731</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>144975</v>
+        <v>145466</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>134674</v>
+        <v>139307</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>73942</v>
+        <v>74449</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>197703</v>
+        <v>199334</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>57419</v>
+        <v>55690</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>101276</v>
+        <v>101627</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>166723</v>
+        <v>167945</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>90330</v>
+        <v>89998</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>137391</v>
+        <v>138879</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>216333</v>
+        <v>218751</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6324</v>
+        <v>5781</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>88048</v>
+        <v>86153</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>99210</v>
+        <v>99039</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>28541</v>
+        <v>28163</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>125342</v>
+        <v>124873</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>141281</v>
+        <v>143713</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>254689</v>
+        <v>255492</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>314064</v>
+        <v>313787</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>585984</v>
+        <v>589551</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>325009</v>
+        <v>320149</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>380947</v>
+        <v>378740</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>683111</v>
+        <v>682769</v>
       </c>
     </row>
     <row r="32">
